--- a/WS2012R2/lisa/docs/VSS testcases.xlsx
+++ b/WS2012R2/lisa/docs/VSS testcases.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="2600" yWindow="560" windowWidth="20440" windowHeight="19620"/>
   </bookViews>
   <sheets>
-    <sheet name="VSS" sheetId="1" r:id="rId4"/>
+    <sheet name="VSS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
   <si>
     <t>Tescase</t>
   </si>
@@ -51,7 +58,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -118,7 +125,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -183,7 +190,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -251,7 +258,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -346,7 +353,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -363,7 +370,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -421,7 +428,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -438,7 +445,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -488,7 +495,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -505,7 +512,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -574,7 +581,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -591,7 +598,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -704,7 +711,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -830,7 +837,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -901,7 +908,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -961,20 +968,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
@@ -982,21 +981,16 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1056,45 +1050,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,29 +1102,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffff5f5d"/>
-      <rgbColor rgb="ff9ce159"/>
-      <rgbColor rgb="fff4f4f4"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFFF5F5D"/>
+      <rgbColor rgb="FF9CE159"/>
+      <rgbColor rgb="FFF4F4F4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1316,7 +1367,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1325,7 +1376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1334,7 +1385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1343,7 +1394,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1352,7 +1403,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1361,7 +1412,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1473,8 +1524,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1482,14 +1533,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1508,7 +1559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +1567,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1544,7 +1595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1570,7 +1621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1596,7 +1647,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1622,7 +1673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1648,7 +1699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1674,7 +1725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1700,7 +1751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1726,7 +1777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1752,7 +1803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1765,9 +1816,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1783,7 +1840,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1802,7 +1859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1828,7 +1885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1854,7 +1911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1880,7 +1937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1906,7 +1963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1932,7 +1989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1958,7 +2015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1984,7 +2041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2010,7 +2067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2036,7 +2093,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2049,9 +2106,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2064,7 +2127,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2083,7 +2146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2113,7 +2176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2139,7 +2202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2165,7 +2228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2191,7 +2254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2217,7 +2280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2243,7 +2306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2269,7 +2332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2295,7 +2358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2321,7 +2384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2334,500 +2397,509 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5391" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.55469" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7734" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.1641" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.0938" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.125" style="1" customWidth="1"/>
     <col min="9" max="256" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="20.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="188.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:8" ht="188.5" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="188.35" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:8" ht="188.25" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s" s="9">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" ht="188.35" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:8" ht="188.25" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s" s="5">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s" s="5">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s" s="5">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="116.35" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:8" ht="116.25" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s" s="9">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s" s="9">
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" ht="188.35" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:8" ht="188.25" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s" s="5">
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="128.35" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:8" ht="128.25" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s" s="9">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s" s="9">
+      <c r="F7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s" s="9">
+      <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" ht="140.35" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:8" ht="140.25" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s" s="5">
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s" s="5">
+      <c r="H8" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" ht="140.35" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row r="9" spans="1:8" ht="140.25" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s" s="9">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s" s="9">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s" s="9">
+      <c r="G9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="13"/>
     </row>
-    <row r="10" ht="210.6" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row r="10" spans="1:8" ht="210.5" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s" s="5">
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s" s="5">
+      <c r="G10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s" s="5">
+      <c r="H10" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" ht="253.7" customHeight="1">
-      <c r="A11" t="s" s="7">
+    <row r="11" spans="1:8" ht="253.75" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s" s="9">
+      <c r="E11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s" s="9">
+      <c r="F11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s" s="9">
+      <c r="G11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="13"/>
     </row>
-    <row r="12" ht="140.35" customHeight="1">
-      <c r="A12" t="s" s="7">
+    <row r="12" spans="1:8" ht="140.25" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s" s="5">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="128.35" customHeight="1">
-      <c r="A13" t="s" s="7">
+    <row r="13" spans="1:8" ht="128.25" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s" s="9">
+      <c r="D13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="s" s="9">
+      <c r="E13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s" s="9">
+      <c r="F13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G13" t="s" s="9">
+      <c r="G13" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" ht="152.35" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:8" ht="152.25" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="140.35" customHeight="1">
-      <c r="A15" t="s" s="7">
+    <row r="15" spans="1:8" ht="140.25" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="D15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s" s="9">
+      <c r="E15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s" s="9">
+      <c r="F15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G15" t="s" s="9">
+      <c r="G15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H15" t="s" s="9">
+      <c r="H15" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" ht="140.35" customHeight="1">
-      <c r="A16" t="s" s="7">
+    <row r="16" spans="1:8" ht="140.25" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="B16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="C16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s" s="5">
+      <c r="G16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H16" t="s" s="5">
+      <c r="H16" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" ht="176.35" customHeight="1">
-      <c r="A17" t="s" s="3">
+    <row r="17" spans="1:8" ht="176.25" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C17" t="s" s="9">
+      <c r="C17" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E17" t="s" s="9">
+      <c r="E17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="s" s="9">
+      <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s" s="9">
+      <c r="G17" s="9" t="s">
         <v>89</v>
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" ht="44.35" customHeight="1">
-      <c r="A18" t="s" s="7">
+    <row r="18" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C18" t="s" s="5">
+      <c r="C18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s" s="5">
+      <c r="G18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H18" t="s" s="5">
+      <c r="H18" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" ht="128.35" customHeight="1">
-      <c r="A19" t="s" s="3">
+    <row r="19" spans="1:8" ht="128.25" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s" s="9">
+      <c r="C19" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E19" t="s" s="9">
+      <c r="E19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="s" s="9">
+      <c r="F19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G19" t="s" s="9">
+      <c r="G19" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H19" s="10"/>
@@ -2838,9 +2910,14 @@
     <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/WS2012R2/lisa/docs/VSS testcases.xlsx
+++ b/WS2012R2/lisa/docs/VSS testcases.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="560" windowWidth="20440" windowHeight="19620"/>
+    <workbookView xWindow="2600" yWindow="560" windowWidth="36160" windowHeight="23340"/>
   </bookViews>
   <sheets>
     <sheet name="VSS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -534,19 +534,6 @@
 3. Perform Backup. 
 4. Perform Restore. 
 5. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
-  </si>
-  <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_CSV_VHDX&lt;/testName&gt;
-   	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Partition.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;FILESYS=ext4&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-09&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnError&gt;Continue&lt;/OnError&gt;
-&lt;/test&gt;</t>
   </si>
   <si>
     <t>SMB Backup Configuration(Only On Window8 Server)
@@ -615,20 +602,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_CSV_VHD&lt;/testName&gt;
-   	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Partition.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;FILESYS=ext4&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-10&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;cleanupScript&gt;setupscripts\RemoveHardDisk.ps1&lt;/cleanupScript&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnError&gt;Continue&lt;/OnError&gt;
-&lt;/test&gt;</t>
-  </si>
-  <si>
     <t>VSS-11</t>
   </si>
   <si>
@@ -964,12 +937,39 @@
 	&lt;OnERROR&gt;Continue&lt;/OnERROR&gt;
 &lt;/test&gt;</t>
   </si>
+  <si>
+    <t>&lt;test&gt;
+&lt;testName&gt;VSS_BackupRestore_SMB_VHDX&lt;/testName&gt;
+   	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Partition.ps1&lt;/testScript&gt; 
+	&lt;testParams&gt;
+		&lt;param&gt;driveletter=F:&lt;/param&gt;
+		&lt;param&gt;FILESYS=ext4&lt;/param&gt;
+		&lt;param&gt;TC_COVERED=VSS-09&lt;/param&gt;
+	&lt;/testParams&gt;
+	&lt;timeout&gt;1200&lt;/timeout&gt;
+	&lt;OnError&gt;Continue&lt;/OnError&gt;
+&lt;/test&gt;</t>
+  </si>
+  <si>
+    <t>&lt;test&gt;
+&lt;testName&gt;VSS_BackupRestore_SMB_VHD&lt;/testName&gt;
+   	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Partition.ps1&lt;/testScript&gt; 
+	&lt;testParams&gt;
+		&lt;param&gt;driveletter=F:&lt;/param&gt;
+		&lt;param&gt;FILESYS=ext4&lt;/param&gt;
+		&lt;param&gt;TC_COVERED=VSS-10&lt;/param&gt;
+	&lt;/testParams&gt;
+	&lt;cleanupScript&gt;setupscripts\RemoveHardDisk.ps1&lt;/cleanupScript&gt;
+	&lt;timeout&gt;1200&lt;/timeout&gt;
+	&lt;OnError&gt;Continue&lt;/OnError&gt;
+&lt;/test&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -991,6 +991,18 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1049,8 +1061,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1116,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2421,8 +2441,8 @@
   </sheetPr>
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -2676,18 +2696,18 @@
         <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="253.75" customHeight="1">
       <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>50</v>
@@ -2702,67 +2722,67 @@
         <v>41</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="140.25" customHeight="1">
       <c r="A12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="128.25" customHeight="1">
       <c r="A13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="152.25" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
@@ -2771,22 +2791,22 @@
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="140.25" customHeight="1">
       <c r="A15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>11</v>
@@ -2795,24 +2815,24 @@
         <v>18</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="140.25" customHeight="1">
       <c r="A16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
@@ -2821,27 +2841,27 @@
         <v>18</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="176.25" customHeight="1">
       <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>12</v>
@@ -2850,22 +2870,22 @@
         <v>13</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="44.25" customHeight="1">
       <c r="A18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -2874,33 +2894,33 @@
         <v>36</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="128.25" customHeight="1">
       <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H19" s="10"/>
     </row>

--- a/WS2012R2/lisa/docs/VSS testcases.xlsx
+++ b/WS2012R2/lisa/docs/VSS testcases.xlsx
@@ -922,22 +922,6 @@
     <t>1. Guest should not panic / call trace in case of backup/restore failure</t>
   </si>
   <si>
-    <t>VSS_BackupRestore_Fail.ps1
-VSS_Disk_Fail.sh</t>
-  </si>
-  <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_Fail&lt;/testName&gt;
-	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Fail.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-18&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnERROR&gt;Continue&lt;/OnERROR&gt;
-&lt;/test&gt;</t>
-  </si>
-  <si>
     <t>&lt;test&gt;
 &lt;testName&gt;VSS_BackupRestore_SMB_VHDX&lt;/testName&gt;
    	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Partition.ps1&lt;/testScript&gt; 
@@ -963,6 +947,28 @@
 	&lt;timeout&gt;1200&lt;/timeout&gt;
 	&lt;OnError&gt;Continue&lt;/OnError&gt;
 &lt;/test&gt;</t>
+  </si>
+  <si>
+    <t>AddHardDisk.ps1
+VSS_BackupRestore_Fail.ps1
+VSS_Disk_Fail.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;test&gt;
+    &lt;testName&gt;VSS_BackupRestore_Fail&lt;/testName&gt;
+        &lt;setupScript&gt;setupscripts\AddHardDisk.ps1&lt;/setupScript&gt;
+        &lt;testScript&gt;setupscripts\VSS_BackupRestore_Fail.ps1&lt;/testScript&gt; 
+        &lt;testParams&gt;
+            &lt;param&gt;driveletter=F:&lt;/param&gt;
+            &lt;param&gt;SCSI=0,1,Dynamic&lt;/param&gt;
+            &lt;param&gt;IDE=0,1,Dynamic&lt;/param&gt;
+            &lt;param&gt;FILESYS-ext3&lt;/param&gt;
+            &lt;param&gt;TC_COVERED=VSS-18&lt;/param&gt;
+        &lt;/testParams&gt;
+        &lt;cleanupScript&gt;setupscripts\RemoveHardDisk.ps1&lt;/cleanupScript&gt;
+        &lt;timeout&gt;1200&lt;/timeout&gt;
+        &lt;OnERROR&gt;Continue&lt;/OnERROR&gt;
+    &lt;/test&gt;</t>
   </si>
 </sst>
 </file>
@@ -2441,8 +2447,8 @@
   </sheetPr>
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -2696,7 +2702,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>51</v>
@@ -2722,7 +2728,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -2917,10 +2923,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" s="10"/>
     </row>

--- a/WS2012R2/lisa/docs/VSS testcases.xlsx
+++ b/WS2012R2/lisa/docs/VSS testcases.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
-  <workbookPr date1904="1" autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="560" windowWidth="36160" windowHeight="23340"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="VSS" sheetId="1" r:id="rId1"/>
+    <sheet name="VSS" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>Tescase</t>
   </si>
@@ -48,6 +41,63 @@
     <t>VSS-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Check if VSS daemon is running. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">2. Check if </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>hv_vss_backup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> daemon is running inside guest VM.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Daemon should be running. </t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>VSS_BackupRestore.ps1</t>
+  </si>
+  <si>
+    <t>Same as VSS-06</t>
+  </si>
+  <si>
+    <t>Please look at VSS-06 testscript/xml</t>
+  </si>
+  <si>
+    <t>VSS-02</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -58,7 +108,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -112,7 +162,7 @@
 &lt;/test&gt;</t>
   </si>
   <si>
-    <t>VSS-02</t>
+    <t>VSS-03</t>
   </si>
   <si>
     <r>
@@ -125,7 +175,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -147,9 +197,6 @@
 3. Perform Backup. 
 4. Perform Restore. 
 5. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
-  </si>
-  <si>
-    <t>P1</t>
   </si>
   <si>
     <t>&lt;test&gt;
@@ -169,7 +216,7 @@
 &lt;/test&gt;</t>
   </si>
   <si>
-    <t>VSS-03</t>
+    <t>VSS-04</t>
   </si>
   <si>
     <r>
@@ -190,7 +237,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -231,7 +278,7 @@
 &lt;/test&gt;</t>
   </si>
   <si>
-    <t>VSS-04</t>
+    <t>VSS-05</t>
   </si>
   <si>
     <t>Backup/restore on local disk with IDE/SCSI disk attached using VHD.</t>
@@ -245,7 +292,7 @@
 6. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
   </si>
   <si>
-    <t>VSS-05</t>
+    <t>VSS-06</t>
   </si>
   <si>
     <r>
@@ -258,7 +305,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -304,7 +351,7 @@
 &lt;/test&gt;</t>
   </si>
   <si>
-    <t>VSS-06</t>
+    <t>VSS-07</t>
   </si>
   <si>
     <t>Test if deleted file present after backup/restore using VHDx or VHD.</t>
@@ -323,9 +370,6 @@
 2. After Restore VM make sure there is no recovering journal error in /var/log/boot.msg
 3. Check to see if file deleted in step 5 is present.
 </t>
-  </si>
-  <si>
-    <t>VSS_BackupRestore.ps1</t>
   </si>
   <si>
     <t>&lt;test&gt;
@@ -340,7 +384,298 @@
 &lt;/test&gt;</t>
   </si>
   <si>
-    <t>VSS-07</t>
+    <t>VSS-08</t>
+  </si>
+  <si>
+    <t>Backup/restore on with No Network and ISO attached.</t>
+  </si>
+  <si>
+    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
+2. Remove any network and add ISO. 
+3. Perform Backup. 
+4. Perform Restore. 
+5. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. There should be no error on Backup and Restore operation. 
+2. After Restore VM make sure there is no recovering journal error in /var/log/boot.msg
+3. ISO should be present.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSS_BackupRestore_ISO_NoNetwork.ps1
+</t>
+  </si>
+  <si>
+    <t>&lt;test&gt;
+&lt;testName&gt;VSS_BackupRestore_ISO_NoNetwork&lt;/testName&gt;
+   	&lt;testScript&gt;setupscripts\VSS_BackupRestore_ISO_NoNetwork.ps1&lt;/testScript&gt; 
+	&lt;testParams&gt;
+		&lt;param&gt;driveletter=F:&lt;/param&gt;
+		&lt;param&gt;TC_COVERED=VSS-11&lt;/param&gt;
+	&lt;/testParams&gt;
+	&lt;timeout&gt;1200&lt;/timeout&gt;
+	&lt;OnError&gt;Continue&lt;/OnError&gt;
+&lt;/test&gt;</t>
+  </si>
+  <si>
+    <t>VSS-09</t>
+  </si>
+  <si>
+    <t>Backup/restore with 3 chained differencing VHD</t>
+  </si>
+  <si>
+    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
+2. Create a 3 chained differencing disk from the IDE0/SCSI0 disk. 
+3. Create a new VM w/ the 3 chained differencing disk.
+3. Perform Backup. 
+4. Perform Restore. 
+5. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
+  </si>
+  <si>
+    <t>1. There should be no error on Backup and Restore operation. 
+2. After Restore VM make sure there is no recovering journal error in /var/log/boot.msg
+3. All the chains are intact.</t>
+  </si>
+  <si>
+    <t>VSS_3Chain_VHD_backup.ps1</t>
+  </si>
+  <si>
+    <t>&lt;test&gt;
+&lt;testName&gt;VSS_BackupRestore_3Chain_VHD&lt;/testName&gt;
+	&lt;testScript&gt;setupscripts\VSS_3Chain_VHD_backup.ps1&lt;/testScript&gt; 
+	&lt;testParams&gt;
+		&lt;param&gt;driveletter=F:&lt;/param&gt;
+		&lt;param&gt;TC_COVERED=VSS-12&lt;/param&gt;
+	&lt;/testParams&gt;
+	&lt;timeout&gt;1200&lt;/timeout&gt;
+	&lt;OnError&gt;Continue&lt;/OnError&gt;
+&lt;/test&gt;</t>
+  </si>
+  <si>
+    <t>VSS-10</t>
+  </si>
+  <si>
+    <t>Backup/restore with different VM state (stop/pause/saved state)</t>
+  </si>
+  <si>
+    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
+2. Stop/Save/Pause the VM.
+3. Perform Backup. 
+4. Perform Restore. 
+5. Check boot message (/var/log/boot.msg) for any recovering journal error.
+Perform the all above steps with VM in Paused state and Saved state.</t>
+  </si>
+  <si>
+    <t>VSS_BackupRestore_State.ps1</t>
+  </si>
+  <si>
+    <t>&lt;test&gt;
+&lt;testName&gt;VSS_BackupRestore_State&lt;/testName&gt;
+	&lt;testScript&gt;setupscripts\VSS_BackupRestore_State.ps1&lt;/testScript&gt; 
+	&lt;testParams&gt;
+		&lt;param&gt;driveletter=F:&lt;/param&gt;
+		&lt;param&gt;vmState=Paused&lt;/param&gt;
+		&lt;param&gt;TC_COVERED=VSS-15&lt;/param&gt;
+	&lt;/testParams&gt;
+	&lt;timeout&gt;1200&lt;/timeout&gt;
+	&lt;OnERROR&gt;Continue&lt;/OnERROR&gt;
+&lt;/test&gt;</t>
+  </si>
+  <si>
+    <t>For the state param there are 3 options:
+&lt;param&gt;vmState=Paused&lt;/param&gt;
+&lt;param&gt;vmState=Off&lt;/param&gt;
+&lt;param&gt;vmState=Saved&lt;/param&gt;</t>
+  </si>
+  <si>
+    <t>VSS-11</t>
+  </si>
+  <si>
+    <t>Test if backup/restore gracefully fails in case of failure.</t>
+  </si>
+  <si>
+    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other 
+2. Check if hv_vss_backup daemon is running inside guest VM. 
+3. Change host side configuration to insert failure in backup.  Or disable VSS daemon in guest.
+4. Check guest logs for any weird state.</t>
+  </si>
+  <si>
+    <t>1. Guest should not panic / call trace in case of backup/restore failure</t>
+  </si>
+  <si>
+    <t>AddHardDisk.ps1
+VSS_BackupRestore_Fail.ps1
+VSS_Disk_Fail.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;test&gt;
+    &lt;testName&gt;VSS_BackupRestore_Fail&lt;/testName&gt;
+        &lt;setupScript&gt;setupscripts\AddHardDisk.ps1&lt;/setupScript&gt;
+        &lt;testScript&gt;setupscripts\VSS_BackupRestore_Fail.ps1&lt;/testScript&gt; 
+        &lt;testParams&gt;
+            &lt;param&gt;driveletter=F:&lt;/param&gt;
+            &lt;param&gt;SCSI=0,1,Dynamic&lt;/param&gt;
+            &lt;param&gt;IDE=0,1,Dynamic&lt;/param&gt;
+            &lt;param&gt;FILESYS-ext3&lt;/param&gt;
+            &lt;param&gt;TC_COVERED=VSS-18&lt;/param&gt;
+        &lt;/testParams&gt;
+        &lt;cleanupScript&gt;setupscripts\RemoveHardDisk.ps1&lt;/cleanupScript&gt;
+        &lt;timeout&gt;1200&lt;/timeout&gt;
+        &lt;OnERROR&gt;Continue&lt;/OnERROR&gt;
+    &lt;/test&gt;</t>
+  </si>
+  <si>
+    <t>VSS-12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Backup/restore with </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>passthrough</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> disk attached.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
+2. Attach pass through disk. 
+3. Format (ext3 or ext4) and mount the disk.
+4. Perform Backup. 
+5. Perform Restore. 
+6. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Guest is not aware of pass through disk attached. 
+2. It will only see block device and freeze the volume.
+</t>
+  </si>
+  <si>
+    <t>&lt;test&gt;
+&lt;testName&gt;VSS_BackupRestore_PassTru&lt;/testName&gt;
+   	&lt;setupScript&gt;setupscripts\AddHardDisk.ps1&lt;/setupScript&gt;
+	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Partition.ps1&lt;/testScript&gt; 
+	&lt;testParams&gt;
+		&lt;param&gt;driveletter=F:&lt;/param&gt;
+		&lt;param&gt;SCSI=0,1,PassThrough&lt;/param&gt;
+		&lt;param&gt;passId=2&lt;/param&gt;
+		&lt;param&gt;FILESYS=ext3&lt;/param&gt;
+		&lt;param&gt;TC_COVERED=VSS-16&lt;/param&gt;
+	&lt;/testParams&gt;
+	&lt;timeout&gt;1200&lt;/timeout&gt;
+	&lt;OnError&gt;Continue&lt;/OnError&gt;
+&lt;/test&gt;</t>
+  </si>
+  <si>
+    <t>VSS-13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Backup/restore on with </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>iSCSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> connection inside.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
+2. Create iSCSI connection inside VM. 
+3. Format (ext3 or ext4) and mount the iSCSI disk.
+4. Perform Backup. 
+5. Perform Restore. 
+6. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
+  </si>
+  <si>
+    <t>VSS_BackupRestore_ISCSI.ps1
+VSS_ISCSI_PartitionDisks.sh</t>
+  </si>
+  <si>
+    <t>&lt;test&gt;
+&lt;testName&gt;VSS_BackupRestore_ISCSI&lt;/testName&gt;
+	&lt;testScript&gt;setupscripts\VSS_BackupRestore_ISCSI.ps1&lt;/testScript&gt; 
+	&lt;testParams&gt;
+		&lt;param&gt;driveletter=F:&lt;/param&gt;
+		&lt;param&gt;TargetIP=10.7.1.10&lt;/param&gt;
+		&lt;param&gt;FILESYS=ext4&lt;/param&gt;
+		&lt;param&gt;TC_COVERED=VSS-13&lt;/param&gt;
+	&lt;/testParams&gt;
+	&lt;timeout&gt;1200&lt;/timeout&gt;
+	&lt;OnError&gt;Continue&lt;/OnError&gt;
+&lt;/test&gt;</t>
+  </si>
+  <si>
+    <t>VSS-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backup/restore on with disk stress test running inside. </t>
+  </si>
+  <si>
+    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
+2. Start disk stress test on IDE0. E.g IoZone or DD .
+3. Perform Backup. 
+4. Perform Restore. 
+5. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
+  </si>
+  <si>
+    <t>VSS_BackupRestore_DiskStress.ps1
+VSS_Disk_Stress.sh</t>
+  </si>
+  <si>
+    <t>&lt;test&gt;
+&lt;testName&gt;VSS_BackupRestore_DiskStress&lt;/testName&gt;
+	&lt;testScript&gt;setupscripts\VSS_BackupRestore_DiskStress.ps1&lt;/testScript&gt; 
+	&lt;testParams&gt;
+		&lt;param&gt;driveletter=F:&lt;/param&gt;
+		&lt;param&gt;iOzoneVers=3_424&lt;/param&gt;
+		&lt;param&gt;TC_COVERED=VSS-14&lt;/param&gt;
+	&lt;/testParams&gt;
+	&lt;timeout&gt;1200&lt;/timeout&gt;
+	&lt;OnERROR&gt;Continue&lt;/OnERROR&gt;
+&lt;/test&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The VSS_Disk_Stress will download, compile, an run iOzone. The iOzoneVers param will send the script the iOzone version to be downloaded. Ex: For iozone3_424.tar the param should be like this iOzoneVers=3_424.
+Also make sure development tools are available on the VM. The script will try to install the latest tools, but it is not foolproof. </t>
+  </si>
+  <si>
+    <t>VSS-15</t>
   </si>
   <si>
     <r>
@@ -353,7 +688,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -370,7 +705,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -415,7 +750,7 @@
 Attach it to the VM. The script will format and mount it.</t>
   </si>
   <si>
-    <t>VSS-08</t>
+    <t>VSS-16</t>
   </si>
   <si>
     <r>
@@ -428,7 +763,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -445,7 +780,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -482,7 +817,7 @@
 &lt;/test&gt;</t>
   </si>
   <si>
-    <t>VSS-09</t>
+    <t>VSS-17</t>
   </si>
   <si>
     <r>
@@ -495,7 +830,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -512,7 +847,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -534,6 +869,19 @@
 3. Perform Backup. 
 4. Perform Restore. 
 5. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
+  </si>
+  <si>
+    <t>&lt;test&gt;
+&lt;testName&gt;VSS_BackupRestore_SMB_VHDX&lt;/testName&gt;
+   	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Partition.ps1&lt;/testScript&gt; 
+	&lt;testParams&gt;
+		&lt;param&gt;driveletter=F:&lt;/param&gt;
+		&lt;param&gt;FILESYS=ext4&lt;/param&gt;
+		&lt;param&gt;TC_COVERED=VSS-09&lt;/param&gt;
+	&lt;/testParams&gt;
+	&lt;timeout&gt;1200&lt;/timeout&gt;
+	&lt;OnError&gt;Continue&lt;/OnError&gt;
+&lt;/test&gt;</t>
   </si>
   <si>
     <t>SMB Backup Configuration(Only On Window8 Server)
@@ -555,7 +903,7 @@
 2.     Hyper-V host machine account needs to have full control to the folder(Folder permission)</t>
   </si>
   <si>
-    <t>VSS-10</t>
+    <t>VSS-18</t>
   </si>
   <si>
     <r>
@@ -568,7 +916,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -585,7 +933,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -600,339 +948,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>VSS-11</t>
-  </si>
-  <si>
-    <t>Backup/restore on with No Network and ISO attached.</t>
-  </si>
-  <si>
-    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
-2. Remove any network and add ISO. 
-3. Perform Backup. 
-4. Perform Restore. 
-5. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. There should be no error on Backup and Restore operation. 
-2. After Restore VM make sure there is no recovering journal error in /var/log/boot.msg
-3. ISO should be present.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSS_BackupRestore_ISO_NoNetwork.ps1
-</t>
-  </si>
-  <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_ISO_NoNetwork&lt;/testName&gt;
-   	&lt;testScript&gt;setupscripts\VSS_BackupRestore_ISO_NoNetwork.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-11&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnError&gt;Continue&lt;/OnError&gt;
-&lt;/test&gt;</t>
-  </si>
-  <si>
-    <t>VSS-12</t>
-  </si>
-  <si>
-    <t>Backup/restore with 3 chained differencing VHD</t>
-  </si>
-  <si>
-    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
-2. Create a 3 chained differencing disk from the IDE0/SCSI0 disk. 
-3. Create a new VM w/ the 3 chained differencing disk.
-3. Perform Backup. 
-4. Perform Restore. 
-5. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
-  </si>
-  <si>
-    <t>1. There should be no error on Backup and Restore operation. 
-2. After Restore VM make sure there is no recovering journal error in /var/log/boot.msg
-3. All the chains are intact.</t>
-  </si>
-  <si>
-    <t>VSS_3Chain_VHD_backup.ps1</t>
-  </si>
-  <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_3Chain_VHD&lt;/testName&gt;
-	&lt;testScript&gt;setupscripts\VSS_3Chain_VHD_backup.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-12&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnError&gt;Continue&lt;/OnError&gt;
-&lt;/test&gt;</t>
-  </si>
-  <si>
-    <t>VSS-13</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Backup/restore on with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>iSCSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> connection inside.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
-2. Create iSCSI connection inside VM. 
-3. Format (ext3 or ext4) and mount the iSCSI disk.
-4. Perform Backup. 
-5. Perform Restore. 
-6. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
-  </si>
-  <si>
-    <t>VSS_BackupRestore_ISCSI.ps1
-VSS_ISCSI_PartitionDisks.sh</t>
-  </si>
-  <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_ISCSI&lt;/testName&gt;
-	&lt;testScript&gt;setupscripts\VSS_BackupRestore_ISCSI.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;TargetIP=10.7.1.10&lt;/param&gt;
-		&lt;param&gt;FILESYS=ext4&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-13&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnError&gt;Continue&lt;/OnError&gt;
-&lt;/test&gt;</t>
-  </si>
-  <si>
-    <t>VSS-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backup/restore on with disk stress test running inside. </t>
-  </si>
-  <si>
-    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
-2. Start disk stress test on IDE0. E.g IoZone or DD .
-3. Perform Backup. 
-4. Perform Restore. 
-5. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
-  </si>
-  <si>
-    <t>VSS_BackupRestore_DiskStress.ps1
-VSS_Disk_Stress.sh</t>
-  </si>
-  <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_DiskStress&lt;/testName&gt;
-	&lt;testScript&gt;setupscripts\VSS_BackupRestore_DiskStress.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;iOzoneVers=3_424&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-14&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnERROR&gt;Continue&lt;/OnERROR&gt;
-&lt;/test&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The VSS_Disk_Stress will download, compile, an run iOzone. The iOzoneVers param will send the script the iOzone version to be downloaded. Ex: For iozone3_424.tar the param should be like this iOzoneVers=3_424.
-Also make sure development tools are available on the VM. The script will try to install the latest tools, but it is not foolproof. </t>
-  </si>
-  <si>
-    <t>VSS-15</t>
-  </si>
-  <si>
-    <t>Backup/restore with different VM state (stop/pause/saved state)</t>
-  </si>
-  <si>
-    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
-2. Stop/Save/Pause the VM.
-3. Perform Backup. 
-4. Perform Restore. 
-5. Check boot message (/var/log/boot.msg) for any recovering journal error.
-Perform the all above steps with VM in Paused state and Saved state.</t>
-  </si>
-  <si>
-    <t>VSS_BackupRestore_State.ps1</t>
-  </si>
-  <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_State&lt;/testName&gt;
-	&lt;testScript&gt;setupscripts\VSS_BackupRestore_State.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;vmState=Paused&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-15&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnERROR&gt;Continue&lt;/OnERROR&gt;
-&lt;/test&gt;</t>
-  </si>
-  <si>
-    <t>For the state param there are 3 options:
-&lt;param&gt;vmState=Paused&lt;/param&gt;
-&lt;param&gt;vmState=Off&lt;/param&gt;
-&lt;param&gt;vmState=Saved&lt;/param&gt;</t>
-  </si>
-  <si>
-    <t>VSS-16</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Backup/restore with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>passthrough</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> disk attached.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller.
-2. Attach pass through disk. 
-3. Format (ext3 or ext4) and mount the disk.
-4. Perform Backup. 
-5. Perform Restore. 
-6. Check boot message (/var/log/boot.msg) for any recovering journal error.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Guest is not aware of pass through disk attached. 
-2. It will only see block device and freeze the volume.
-</t>
-  </si>
-  <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_PassTru&lt;/testName&gt;
-   	&lt;setupScript&gt;setupscripts\AddHardDisk.ps1&lt;/setupScript&gt;
-	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Partition.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;SCSI=0,1,PassThrough&lt;/param&gt;
-		&lt;param&gt;passId=2&lt;/param&gt;
-		&lt;param&gt;FILESYS=ext3&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-16&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnError&gt;Continue&lt;/OnError&gt;
-&lt;/test&gt;</t>
-  </si>
-  <si>
-    <t>VSS-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if VSS daemon is running. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">1. Create a VM on IDE0 and make sure there is no other Disk attached on other controller
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">2. Check if </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>hv_vss_backup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve"> daemon is running inside guest VM.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Daemon should be running. </t>
-  </si>
-  <si>
-    <t>Same as VSS-06</t>
-  </si>
-  <si>
-    <t>Please look at VSS-06 testscript/xml</t>
-  </si>
-  <si>
-    <t>VSS-18</t>
-  </si>
-  <si>
-    <t>Test if backup/restore gracefully fails in case of failure.</t>
-  </si>
-  <si>
-    <t>1. Create a VM on IDE0 and make sure there is no other Disk attached on other 
-2. Check if hv_vss_backup daemon is running inside guest VM. 
-3. Change host side configuration to insert failure in backup.  Or disable VSS daemon in guest.
-4. Check guest logs for any weird state.</t>
-  </si>
-  <si>
-    <t>1. Guest should not panic / call trace in case of backup/restore failure</t>
-  </si>
-  <si>
-    <t>&lt;test&gt;
-&lt;testName&gt;VSS_BackupRestore_SMB_VHDX&lt;/testName&gt;
-   	&lt;testScript&gt;setupscripts\VSS_BackupRestore_Partition.ps1&lt;/testScript&gt; 
-	&lt;testParams&gt;
-		&lt;param&gt;driveletter=F:&lt;/param&gt;
-		&lt;param&gt;FILESYS=ext4&lt;/param&gt;
-		&lt;param&gt;TC_COVERED=VSS-09&lt;/param&gt;
-	&lt;/testParams&gt;
-	&lt;timeout&gt;1200&lt;/timeout&gt;
-	&lt;OnError&gt;Continue&lt;/OnError&gt;
-&lt;/test&gt;</t>
   </si>
   <si>
     <t>&lt;test&gt;
@@ -948,70 +963,54 @@
 	&lt;OnError&gt;Continue&lt;/OnError&gt;
 &lt;/test&gt;</t>
   </si>
-  <si>
-    <t>AddHardDisk.ps1
-VSS_BackupRestore_Fail.ps1
-VSS_Disk_Fail.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;test&gt;
-    &lt;testName&gt;VSS_BackupRestore_Fail&lt;/testName&gt;
-        &lt;setupScript&gt;setupscripts\AddHardDisk.ps1&lt;/setupScript&gt;
-        &lt;testScript&gt;setupscripts\VSS_BackupRestore_Fail.ps1&lt;/testScript&gt; 
-        &lt;testParams&gt;
-            &lt;param&gt;driveletter=F:&lt;/param&gt;
-            &lt;param&gt;SCSI=0,1,Dynamic&lt;/param&gt;
-            &lt;param&gt;IDE=0,1,Dynamic&lt;/param&gt;
-            &lt;param&gt;FILESYS-ext3&lt;/param&gt;
-            &lt;param&gt;TC_COVERED=VSS-18&lt;/param&gt;
-        &lt;/testParams&gt;
-        &lt;cleanupScript&gt;setupscripts\RemoveHardDisk.ps1&lt;/cleanupScript&gt;
-        &lt;timeout&gt;1200&lt;/timeout&gt;
-        &lt;OnERROR&gt;Continue&lt;/OnERROR&gt;
-    &lt;/test&gt;</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Verdana"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,8 +1041,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1066,142 +1071,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFFF5F5D"/>
-      <rgbColor rgb="FF9CE159"/>
-      <rgbColor rgb="FFF4F4F4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff9ce159"/>
+      <rgbColor rgb="ffff5f5d"/>
+      <rgbColor rgb="fff4f4f4"/>
+      <rgbColor rgb="ffbfbfbf"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1393,7 +1366,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1402,7 +1375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1411,7 +1384,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1420,7 +1393,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1429,7 +1402,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1438,7 +1411,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1550,8 +1523,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect/>
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1559,14 +1532,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1585,7 +1558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1593,7 +1566,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1621,7 +1594,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1647,7 +1620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1673,7 +1646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1699,7 +1672,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1725,7 +1698,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1751,7 +1724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1777,7 +1750,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1803,7 +1776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1829,7 +1802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1842,15 +1815,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1866,7 +1833,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1885,7 +1852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1911,7 +1878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1937,7 +1904,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1963,7 +1930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1989,7 +1956,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2015,7 +1982,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2041,7 +2008,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2067,7 +2034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2093,7 +2060,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2119,7 +2086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2132,15 +2099,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2153,7 +2114,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2172,7 +2133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2202,7 +2163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2228,7 +2189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2254,7 +2215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2280,7 +2241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2306,7 +2267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2332,7 +2293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2358,7 +2319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2384,7 +2345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2410,7 +2371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2423,35 +2384,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
@@ -2464,486 +2416,481 @@
     <col min="9" max="256" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="20.5" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="188.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="44.25" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" t="s" s="5">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="188.25" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" ht="188.5" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="C3" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" ht="188.25" customHeight="1">
+      <c r="A4" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="188.25" customHeight="1">
+      <c r="A5" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" ht="116.25" customHeight="1">
+      <c r="A6" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="188.25" customHeight="1">
+      <c r="A7" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="128.25" customHeight="1">
+      <c r="A8" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s" s="9">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G8" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="140.25" customHeight="1">
+      <c r="A9" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" ht="128.25" customHeight="1">
+      <c r="A10" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s" s="9">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="140.25" customHeight="1">
+      <c r="A11" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="E11" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>61</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="188.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="12" ht="128.25" customHeight="1">
+      <c r="A12" t="s" s="6">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="F12" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="176.25" customHeight="1">
+      <c r="A13" t="s" s="6">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s" s="8">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="116.25" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="188.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="128.25" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="140.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="140.25" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="210.5" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="253.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="140.25" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="128.25" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>65</v>
+      <c r="G13" t="s" s="9">
+        <v>72</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="152.25" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5" t="s">
+    <row r="14" ht="152.25" customHeight="1">
+      <c r="A14" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" ht="140.25" customHeight="1">
+      <c r="A15" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s" s="8">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s" s="9">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="6"/>
+      <c r="F15" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="9">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s" s="9">
+        <v>83</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" ht="140.25" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>76</v>
+    <row r="16" ht="140.25" customHeight="1">
+      <c r="A16" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s" s="5">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s" s="12">
+        <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="140.25" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>82</v>
-      </c>
+    <row r="17" ht="140.25" customHeight="1">
+      <c r="A17" t="s" s="11">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s" s="9">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s" s="9">
+        <v>93</v>
+      </c>
+      <c r="H17" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="176.25" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="9" t="s">
+    <row r="18" ht="210.5" customHeight="1">
+      <c r="A18" t="s" s="11">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s" s="5">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F18" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="G18" t="s" s="5">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s" s="12">
+        <v>98</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" ht="44.25" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="128.25" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="9" t="s">
+    <row r="19" ht="253.75" customHeight="1">
+      <c r="A19" t="s" s="11">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s" s="8">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s" s="9">
         <v>96</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F19" t="s" s="9">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="9">
         <v>101</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>